--- a/assets/trade-template.xlsx
+++ b/assets/trade-template.xlsx
@@ -17,6 +17,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
@@ -26,19 +32,13 @@
     <t>TradeDate</t>
   </si>
   <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Quantity</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>float64</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles xmlns="" count="1">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,12 +342,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension xmlns="" ref="A1"/>
-  <sheetViews xmlns="">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr xmlns="" defaultRowHeight="15"/>
-  <sheetData xmlns="">
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
@@ -371,11 +371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension xmlns="" ref="A1"/>
-  <sheetViews xmlns="">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData xmlns="">
+  <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
@@ -401,13 +401,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
